--- a/biology/Médecine/Station_thermale_de_La_Bourboule/Station_thermale_de_La_Bourboule.xlsx
+++ b/biology/Médecine/Station_thermale_de_La_Bourboule/Station_thermale_de_La_Bourboule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Grands Thermes de La Bourboule sont un centre thérapeutique hydrothermal spécialisé dans la crénothérapie.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La station est créée en 1875[1]. Au début du 20e siècle, c'est une station à la mode qui accueille des célébrités.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La station est créée en 1875. Au début du 20e siècle, c'est une station à la mode qui accueille des célébrités.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Situé à La Bourboule, une vallée au cœur du parc régional des volcans d'Auvergne, plus exactement dans le massif des Monts Dore (Sancy), la station est implantée en bord de Dordogne, au pied du lieu-dit La Roche des Fées, roche située sur une faille volcanique, à l'origine de la remontée des eaux minérales.
 </t>
@@ -574,9 +590,11 @@
           <t>Indications thérapeutiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La station est spécialisée dans les pathologies de l'enfant, notamment dans l'asthme[2],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La station est spécialisée dans les pathologies de l'enfant, notamment dans l'asthme,.
 </t>
         </is>
       </c>
@@ -605,10 +623,12 @@
           <t>Gestion</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'établissement thermal est dirigé en régie municipale.
-La station de la Bourboule bénéficie en 2020, comme d'autres stations d'Auvergne, du plan thermal régional lancé par Laurent Wauquiez[4].
+La station de la Bourboule bénéficie en 2020, comme d'autres stations d'Auvergne, du plan thermal régional lancé par Laurent Wauquiez.
 </t>
         </is>
       </c>
